--- a/forecast_summary_B083R7SWF5.xlsx
+++ b/forecast_summary_B083R7SWF5.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.3143756850708616</v>
       </c>
       <c r="D2" t="n">
-        <v>12.10657911725814</v>
+        <v>12.75289454465122</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.1466755455676167</v>
       </c>
       <c r="D3" t="n">
-        <v>12.58494399706127</v>
+        <v>11.45801252524991</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.5642986922933905</v>
       </c>
       <c r="D4" t="n">
-        <v>11.36415094348342</v>
+        <v>10.74979217529868</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.7949251631948879</v>
       </c>
       <c r="D5" t="n">
-        <v>10.90860096736501</v>
+        <v>11.57241442800787</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.3233089531472773</v>
       </c>
       <c r="D6" t="n">
-        <v>12.12338639360994</v>
+        <v>11.83988032592917</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>0.04779968151017386</v>
       </c>
       <c r="D7" t="n">
-        <v>12.66234624624085</v>
+        <v>12.21468279689483</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>-0.4305133530210078</v>
       </c>
       <c r="D8" t="n">
-        <v>12.70805939303883</v>
+        <v>12.01178972532873</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-1.426429020698998</v>
       </c>
       <c r="D9" t="n">
-        <v>11.21748409156883</v>
+        <v>11.47135791088871</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-1.857845648972367</v>
       </c>
       <c r="D10" t="n">
-        <v>10.66656170622152</v>
+        <v>10.43191236602352</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-1.185743449706345</v>
       </c>
       <c r="D11" t="n">
-        <v>10.37937995740926</v>
+        <v>10.54736307207634</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.07023681603139742</v>
       </c>
       <c r="D12" t="n">
-        <v>13.08635735937766</v>
+        <v>12.42668725998026</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.3954571526630779</v>
       </c>
       <c r="D13" t="n">
-        <v>12.92587883674467</v>
+        <v>12.32692257149533</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.1135432952099871</v>
       </c>
       <c r="D14" t="n">
-        <v>12.50842776532596</v>
+        <v>12.07636474410917</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>-0.9630895250777373</v>
       </c>
       <c r="D15" t="n">
-        <v>11.25407790601503</v>
+        <v>10.50158162973119</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-1.454929433259816</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0337775239777</v>
+        <v>10.88023874762377</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-1.544222049310973</v>
       </c>
       <c r="D17" t="n">
-        <v>11.25733093118901</v>
+        <v>9.125321007376487</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-1.543787329246744</v>
       </c>
       <c r="D18" t="n">
-        <v>10.04348806535744</v>
+        <v>11.26206498039995</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-1.471440228156222</v>
       </c>
       <c r="D19" t="n">
-        <v>10.41798883345084</v>
+        <v>10.91065511035412</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-1.130360755692886</v>
       </c>
       <c r="D20" t="n">
-        <v>10.38478412561491</v>
+        <v>10.35125158232879</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.7937115578612783</v>
       </c>
       <c r="D21" t="n">
-        <v>11.38220212491079</v>
+        <v>11.40174855250658</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M DS3H AX DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
     </row>
